--- a/CBU-PCB-BOM.xlsx
+++ b/CBU-PCB-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\CBU-PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F68941-92D6-4BA8-B63B-3808C35B0CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB50D5F1-2F60-4F8E-824A-0D3409C1D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4210671-1C10-43EA-9025-D3AE3D76F5F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4210671-1C10-43EA-9025-D3AE3D76F5F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="152">
   <si>
     <t>Ceramic Capacitor 0805</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>Resistor 0603</t>
+  </si>
+  <si>
+    <t>In cart?</t>
   </si>
 </sst>
 </file>
@@ -533,9 +536,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -852,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE061555-1CA7-4351-BAE9-68B383692A6F}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="G21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,14 +869,14 @@
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -911,8 +913,11 @@
       <c r="L1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -939,7 +944,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -966,7 +971,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -993,7 +998,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1022,18 +1027,21 @@
       <c r="I5" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>0.13</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L42" si="1">K5*G5</f>
         <v>0.39</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1068,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1089,7 +1097,7 @@
       <c r="I7" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>106</v>
       </c>
       <c r="K7">
@@ -1100,7 +1108,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1129,7 +1137,7 @@
       <c r="I8" t="s">
         <v>109</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>108</v>
       </c>
       <c r="K8">
@@ -1140,7 +1148,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1169,7 +1177,7 @@
       <c r="I9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>110</v>
       </c>
       <c r="K9">
@@ -1180,7 +1188,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1209,7 +1217,7 @@
       <c r="I10" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>112</v>
       </c>
       <c r="K10">
@@ -1220,7 +1228,7 @@
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1249,7 +1257,7 @@
       <c r="I11" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>115</v>
       </c>
       <c r="K11">
@@ -1260,7 +1268,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1295,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1324,7 @@
       <c r="I13" t="s">
         <v>116</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>118</v>
       </c>
       <c r="K13">
@@ -1327,7 +1335,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1353,7 +1361,7 @@
       <c r="I14" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>117</v>
       </c>
       <c r="K14">
@@ -1364,7 +1372,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1390,7 +1398,7 @@
       <c r="I15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>120</v>
       </c>
       <c r="K15">
@@ -1401,7 +1409,7 @@
         <v>3.5100000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>742792042</v>
       </c>
@@ -1427,7 +1435,7 @@
       <c r="I16">
         <v>742792042</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="1" t="s">
         <v>121</v>
       </c>
       <c r="K16">
@@ -1488,7 +1496,7 @@
       <c r="I18">
         <v>901481104</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K18">
@@ -1525,7 +1533,7 @@
       <c r="I19" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>146</v>
       </c>
       <c r="K19">
@@ -1562,7 +1570,7 @@
       <c r="I20">
         <v>1714955</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K20">
@@ -1599,7 +1607,7 @@
       <c r="I21" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="1" t="s">
         <v>148</v>
       </c>
       <c r="K21">
@@ -1717,7 +1725,7 @@
       <c r="I25" t="s">
         <v>124</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="1" t="s">
         <v>123</v>
       </c>
       <c r="K25">
@@ -1865,7 +1873,7 @@
       <c r="I30" t="s">
         <v>131</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="1" t="s">
         <v>130</v>
       </c>
       <c r="K30">
@@ -1905,7 +1913,7 @@
       <c r="I31" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="1" t="s">
         <v>134</v>
       </c>
       <c r="K31">
@@ -1945,7 +1953,7 @@
       <c r="I32" t="s">
         <v>137</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K32">
@@ -1985,7 +1993,7 @@
       <c r="I33" t="s">
         <v>138</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="1" t="s">
         <v>139</v>
       </c>
       <c r="K33">
@@ -2022,7 +2030,7 @@
       <c r="I34" t="s">
         <v>44</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="1" t="s">
         <v>141</v>
       </c>
       <c r="K34">
@@ -2059,7 +2067,7 @@
       <c r="I35" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="1" t="s">
         <v>142</v>
       </c>
       <c r="K35">
@@ -2216,7 +2224,7 @@
       <c r="I40" t="s">
         <v>60</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="1" t="s">
         <v>143</v>
       </c>
       <c r="K40">
@@ -2253,7 +2261,7 @@
       <c r="I41" t="s">
         <v>63</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="1" t="s">
         <v>144</v>
       </c>
       <c r="K41">
@@ -2290,7 +2298,7 @@
       <c r="I42" t="s">
         <v>66</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="1" t="s">
         <v>145</v>
       </c>
       <c r="K42">
@@ -2333,6 +2341,9 @@
     <hyperlink ref="J19" r:id="rId19" xr:uid="{589175BE-89C4-4D52-AAFB-C859B358E278}"/>
     <hyperlink ref="J20" r:id="rId20" xr:uid="{A70B7D86-B12D-415C-9FA6-8E7953247930}"/>
     <hyperlink ref="J21" r:id="rId21" xr:uid="{0012A689-3780-4B5A-9A71-79DD9B35A2C2}"/>
+    <hyperlink ref="J30" r:id="rId22" xr:uid="{DADA061F-A70A-4920-A249-6A342CBE0CB1}"/>
+    <hyperlink ref="J31" r:id="rId23" xr:uid="{75354BB3-C417-4890-A98E-4CDEBD18F696}"/>
+    <hyperlink ref="J32" r:id="rId24" xr:uid="{73D34756-E64A-49F1-ADD7-FA46090BE75D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CBU-PCB-BOM.xlsx
+++ b/CBU-PCB-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\CBU-PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB50D5F1-2F60-4F8E-824A-0D3409C1D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A19EE3-C119-44B4-97C0-0170EB039009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4210671-1C10-43EA-9025-D3AE3D76F5F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4210671-1C10-43EA-9025-D3AE3D76F5F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="153">
   <si>
     <t>Ceramic Capacitor 0805</t>
   </si>
@@ -68,12 +68,6 @@
     <t>Murata</t>
   </si>
   <si>
-    <t>C9, C14, C15, C19</t>
-  </si>
-  <si>
-    <t>C10, C16</t>
-  </si>
-  <si>
     <t>C11, C12, C17, C18</t>
   </si>
   <si>
@@ -492,6 +486,15 @@
   </si>
   <si>
     <t>In cart?</t>
+  </si>
+  <si>
+    <t>C9, C14, C15, C16</t>
+  </si>
+  <si>
+    <t>C10, C19</t>
+  </si>
+  <si>
+    <t>560nH</t>
   </si>
 </sst>
 </file>
@@ -856,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE061555-1CA7-4351-BAE9-68B383692A6F}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,43 +881,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" t="s">
-        <v>74</v>
-      </c>
       <c r="M1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -922,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -931,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -941,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -949,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -958,7 +961,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -968,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -976,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -985,17 +988,17 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>91</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1003,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1012,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1028,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K5">
         <v>0.13</v>
@@ -1038,7 +1041,7 @@
         <v>0.39</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1046,16 +1049,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1065,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1073,16 +1076,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1095,10 +1098,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K7">
         <v>0.17</v>
@@ -1113,16 +1116,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -1135,10 +1138,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K8">
         <v>0.16</v>
@@ -1153,16 +1156,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1175,10 +1178,10 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K9">
         <v>0.75</v>
@@ -1193,16 +1196,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1215,10 +1218,10 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K10">
         <v>0.35</v>
@@ -1233,16 +1236,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1255,10 +1258,10 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K11">
         <v>0.45</v>
@@ -1273,26 +1276,26 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>91</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1300,16 +1303,16 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1322,10 +1325,10 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="K13">
         <v>0.17</v>
@@ -1337,16 +1340,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1356,13 +1359,13 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K14">
         <v>4.5999999999999996</v>
@@ -1374,32 +1377,32 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K15">
         <v>0.39</v>
@@ -1414,13 +1417,13 @@
         <v>742792042</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1430,13 +1433,13 @@
         <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I16">
         <v>742792042</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K16">
         <v>0.21</v>
@@ -1451,13 +1454,13 @@
         <v>731000114</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1467,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1475,13 +1478,13 @@
         <v>901481104</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1491,13 +1494,13 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I18">
         <v>901481104</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K18">
         <v>1.42</v>
@@ -1509,32 +1512,32 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K19">
         <v>0.79</v>
@@ -1549,13 +1552,13 @@
         <v>1714955</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1565,13 +1568,13 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I20">
         <v>1714955</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K20">
         <v>1.87</v>
@@ -1583,16 +1586,19 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>152</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1602,13 +1608,13 @@
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K21">
         <v>0.47</v>
@@ -1620,16 +1626,16 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1639,24 +1645,24 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1666,51 +1672,51 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
         <v>91</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -1720,13 +1726,13 @@
         <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K25">
         <v>0.56999999999999995</v>
@@ -1738,143 +1744,143 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
         <v>91</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
         <v>91</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
         <v>91</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>89</v>
       </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
         <v>91</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H30" t="s">
-        <v>132</v>
-      </c>
-      <c r="I30" t="s">
-        <v>131</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="K30">
         <v>0.31</v>
@@ -1886,19 +1892,19 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1908,13 +1914,13 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="I31" t="s">
-        <v>133</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="K31">
         <v>0.31</v>
@@ -1926,35 +1932,35 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" t="s">
         <v>135</v>
       </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H32" t="s">
-        <v>132</v>
-      </c>
-      <c r="I32" t="s">
-        <v>137</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K32">
         <v>0.31</v>
@@ -1966,35 +1972,35 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" t="s">
         <v>136</v>
       </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H33" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" t="s">
-        <v>138</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K33">
         <v>0.31</v>
@@ -2006,32 +2012,32 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
         <v>44</v>
       </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K34">
         <v>0.18</v>
@@ -2043,32 +2049,32 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
         <v>47</v>
       </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K35">
         <v>4.8099999999999996</v>
@@ -2083,13 +2089,13 @@
         <v>5000</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D36">
         <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2099,57 +2105,57 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I36">
         <v>5000</v>
       </c>
       <c r="K36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
         <v>52</v>
       </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>54</v>
-      </c>
       <c r="I37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D38">
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2159,27 +2165,27 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2189,27 +2195,27 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -2219,13 +2225,13 @@
         <v>6</v>
       </c>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K40">
         <v>1.1499999999999999</v>
@@ -2237,32 +2243,32 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
         <v>63</v>
       </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H41" t="s">
-        <v>65</v>
-      </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K41">
         <v>0.76</v>
@@ -2274,16 +2280,16 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2293,13 +2299,13 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K42">
         <v>0.72</v>
@@ -2311,7 +2317,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L44">
         <f>SUM(L2:L42)</f>
